--- a/biology/Mycologie/Plasmodiophoromycetes/Plasmodiophoromycetes.xlsx
+++ b/biology/Mycologie/Plasmodiophoromycetes/Plasmodiophoromycetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plasmodiophorales
 Les Plasmodiophorida (CINZ) ou Plasmodiophorales (CIN) sont un ordre de protistes du groupe des Rhizaria. Ce sont des phytoparasites responsables des maladies cryptogamiques comme la hernie du chou ou la gale poudreuse des pommes de terre. 
@@ -513,10 +525,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Plasmodiophorida est attribué, selon les sources, au botaniste américain Frank Lincoln Stevens (d) (1871-1934) en 1919[1] ou au botaniste, mycologue et phytopathologiste britannique Walter Robert Ivimey Cook (d) (1902-1952) en 1928[2].
-Pour l'ordre des Plasmodiophorales, toutes les sources s'accordent pour attribuer celui-ci à Frank Lincoln Stevens[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Plasmodiophorida est attribué, selon les sources, au botaniste américain Frank Lincoln Stevens (d) (1871-1934) en 1919 ou au botaniste, mycologue et phytopathologiste britannique Walter Robert Ivimey Cook (d) (1902-1952) en 1928.
+Pour l'ordre des Plasmodiophorales, toutes les sources s'accordent pour attribuer celui-ci à Frank Lincoln Stevens,.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (2 juillet 2020)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (2 juillet 2020) :
 famille Endemosarcidae L.S.Olive &amp; Erdos, 1971
 famille Plasmodiophoridae
 genre Cystospora J.E. Elliot</t>
